--- a/Excels/Quality_品质表.xlsx
+++ b/Excels/Quality_品质表.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>int</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>ExampleQualityName0001</t>
+  </si>
+  <si>
+    <t>TestQualityName0001</t>
   </si>
 </sst>
 </file>
@@ -638,10 +641,10 @@
     <xf fontId="21" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf fontId="21" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf fontId="21" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
@@ -1511,7 +1514,7 @@
     </row>
     <row r="4" s="1" customFormat="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1"/>
@@ -1524,10 +1527,10 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="30">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>0</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1"/>
@@ -1540,8 +1543,12 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="30">
-      <c r="A6" s="1"/>
-      <c r="B6" s="6"/>
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1552,8 +1559,8 @@
       <c r="J6" s="1"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="30">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1564,8 +1571,8 @@
       <c r="J7" s="1"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="30">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1589,7 +1596,7 @@
     </row>
     <row r="10" s="1" customFormat="1" ht="30">
       <c r="A10" s="1"/>
-      <c r="B10" s="6"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1624,12 +1631,12 @@
     </row>
     <row r="13" s="1" customFormat="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1637,79 +1644,79 @@
     <row r="14" s="1" customFormat="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
     <row r="15" s="1" customFormat="1">
       <c r="A15" s="1"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
     <row r="16" s="1" customFormat="1">
       <c r="A16" s="1"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
     <row r="17" s="1" customFormat="1">
       <c r="A17" s="1"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" s="1" customFormat="1">
       <c r="A18" s="1"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
     <row r="19" s="1" customFormat="1">
       <c r="A19" s="7"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
     <row r="20" s="1" customFormat="1">
       <c r="A20" s="7"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -1771,7 +1778,7 @@
     </row>
     <row r="26" s="1" customFormat="1">
       <c r="A26" s="7"/>
-      <c r="B26" s="6"/>
+      <c r="B26" s="5"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -1783,7 +1790,7 @@
     </row>
     <row r="27" s="1" customFormat="1">
       <c r="A27" s="7"/>
-      <c r="B27" s="6"/>
+      <c r="B27" s="5"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
